--- a/GATEWAY/S1#111ONIT0000000/OnitGroup/OnVac/V.4.43.0.0/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/S1#111ONIT0000000/OnitGroup/OnVac/V.4.43.0.0/accreditamento-checklist_V4.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E55031-271A-4A35-9D79-DE33FDAAFA16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0A4743-E804-4A98-99CA-6F8D60CA49AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="424">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1850,12 +1850,6 @@
     <t>In caso di Time out il servizio dell'applicativo proverà a reinviare il documento dopo m minuti (m configurabile), in caso di ulteriore errore il servizio riproverà ad effettuare la chiamata. Il numero di reinvii è configurabile.</t>
   </si>
   <si>
-    <t>Non è possibile da applicativo escludere i campi obbligatori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non è possibile da applicativo inviare </t>
-  </si>
-  <si>
     <t>Applicativo non prevede possibilità di utilizzare altro valore avendo una lista predefinita</t>
   </si>
   <si>
@@ -1986,13 +1980,82 @@
   </si>
   <si>
     <t>Applicativo non da la possibilità di omettere la pare narrativa</t>
+  </si>
+  <si>
+    <t>Non è possibile da applicativo inviare un messaggio senza almeno un identificativo</t>
+  </si>
+  <si>
+    <t>3c33c9edc3fcb3d9</t>
+  </si>
+  <si>
+    <t>2023-02-07T09:25:43Z</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>48909bb657b14956</t>
+  </si>
+  <si>
+    <t>2023-02-07T09:37:17Z</t>
+  </si>
+  <si>
+    <t>e04c5ec70a90792a</t>
+  </si>
+  <si>
+    <t>2023-02-07T09:41:01Z</t>
+  </si>
+  <si>
+    <t>b246089fe213433c</t>
+  </si>
+  <si>
+    <t>2023-02-07T10:16:19Z</t>
+  </si>
+  <si>
+    <t>2023-01-27T14:37:26Z</t>
+  </si>
+  <si>
+    <t>Per quanto riguarda le lettere minuscole del codice fiscale nell'applicativo viene fatto sempre un uppercase automatico.</t>
+  </si>
+  <si>
+    <t>applicativo prevede solo valori  N e V</t>
+  </si>
+  <si>
+    <t>Nel messaggio d'errore viene indicata la mancanza del campo del comune di residenza. Dopo che l'operatore ha sistemato il dato, effettua il reinvio.</t>
+  </si>
+  <si>
+    <t>Il campo nome paziente è obbligatorio nell'applicativo</t>
+  </si>
+  <si>
+    <t>Nel messaggio d'errore viene indicata la mancanza dell'esonero. Dopo che l'operatore ha sistemato il dato, effettua il reinvio.</t>
+  </si>
+  <si>
+    <t>Nel messaggio d'errore viene indicata la mancata valorizzazione del vaccino somministrato. Dopo che l'operatore ha sistemato il dato, effettua il reinvio.</t>
+  </si>
+  <si>
+    <t>Nel messaggio d'errore viene indicata la valorizzazione errata. Dopo che l'operatore ha sistemato il dato, effettua il reinvio.</t>
+  </si>
+  <si>
+    <t>Viene segnalato l'errore</t>
+  </si>
+  <si>
+    <t>Viene segnalato l'errore del mancato valore. Dopo che l'operatore ha sistemato il dato, effettua il reinvio.</t>
+  </si>
+  <si>
+    <t>Viene segnalato l'errore di configurazione. Dopo che l'operatore ha sistemato il dato, effettua il reinvio.</t>
+  </si>
+  <si>
+    <t>La ragione di esonero/omissione o differimento della somministrazione è un dato obbligatorio nell'applicativo.</t>
+  </si>
+  <si>
+    <t>Non è possibile da applicativo inviare un messaggio senza almeno un identificativo del paziente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2055,6 +2118,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2420,7 +2490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2531,6 +2601,18 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2553,17 +2635,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3935,10 +4009,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O120" sqref="O120"/>
+      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3969,12 +4043,12 @@
       <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="33" hidden="1" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="51"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -3987,14 +4061,14 @@
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" hidden="1" customHeight="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="51"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4007,12 +4081,12 @@
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="55" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="2"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -4026,12 +4100,12 @@
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="51"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4044,8 +4118,8 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -4643,13 +4717,13 @@
         <v>44953</v>
       </c>
       <c r="G27" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="I27" s="21" t="s">
         <v>364</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>366</v>
       </c>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
@@ -4678,13 +4752,13 @@
         <v>44953</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
@@ -4713,13 +4787,13 @@
         <v>44956</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
@@ -4748,13 +4822,13 @@
         <v>44953</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
@@ -4974,22 +5048,26 @@
       <c r="E38" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
+      <c r="F38" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>404</v>
+      </c>
       <c r="J38" s="22"/>
-      <c r="K38" s="22" t="s">
-        <v>323</v>
-      </c>
+      <c r="K38" s="22"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O38" s="24" t="s">
-        <v>357</v>
-      </c>
+      <c r="O38" s="24"/>
     </row>
     <row r="39" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
       <c r="A39" s="17">
@@ -5007,10 +5085,18 @@
       <c r="E39" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
+      <c r="F39" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>404</v>
+      </c>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
@@ -5152,10 +5238,18 @@
       <c r="E44" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
+      <c r="F44" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>404</v>
+      </c>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
@@ -5181,10 +5275,18 @@
       <c r="E45" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
+      <c r="F45" s="20">
+        <v>44964</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>404</v>
+      </c>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
@@ -6644,13 +6746,13 @@
         <v>323</v>
       </c>
       <c r="L95" s="22"/>
-      <c r="M95" s="22"/>
+      <c r="M95" s="46" t="s">
+        <v>423</v>
+      </c>
       <c r="N95" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O95" s="24" t="s">
-        <v>358</v>
-      </c>
+      <c r="O95" s="24"/>
     </row>
     <row r="96" spans="1:15" ht="148.5" customHeight="1" thickBot="1">
       <c r="A96" s="17">
@@ -6683,7 +6785,9 @@
       <c r="J96" s="22"/>
       <c r="K96" s="22"/>
       <c r="L96" s="22"/>
-      <c r="M96" s="22"/>
+      <c r="M96" s="60" t="s">
+        <v>412</v>
+      </c>
       <c r="N96" s="23" t="s">
         <v>87</v>
       </c>
@@ -6720,7 +6824,9 @@
       <c r="J97" s="22"/>
       <c r="K97" s="22"/>
       <c r="L97" s="22"/>
-      <c r="M97" s="22"/>
+      <c r="M97" s="46" t="s">
+        <v>413</v>
+      </c>
       <c r="N97" s="23" t="s">
         <v>87</v>
       </c>
@@ -6754,7 +6860,9 @@
       <c r="I98" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="J98" s="22"/>
+      <c r="J98" s="46" t="s">
+        <v>414</v>
+      </c>
       <c r="K98" s="22"/>
       <c r="L98" s="22"/>
       <c r="M98" s="22"/>
@@ -6794,7 +6902,9 @@
       <c r="J99" s="22"/>
       <c r="K99" s="22"/>
       <c r="L99" s="22"/>
-      <c r="M99" s="22"/>
+      <c r="M99" s="46" t="s">
+        <v>415</v>
+      </c>
       <c r="N99" s="23" t="s">
         <v>87</v>
       </c>
@@ -6825,13 +6935,13 @@
         <v>323</v>
       </c>
       <c r="L100" s="22"/>
-      <c r="M100" s="22"/>
+      <c r="M100" s="22" t="s">
+        <v>357</v>
+      </c>
       <c r="N100" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O100" s="24" t="s">
-        <v>359</v>
-      </c>
+      <c r="O100" s="24"/>
     </row>
     <row r="101" spans="1:15" ht="160.5" customHeight="1" thickBot="1">
       <c r="A101" s="17">
@@ -6858,13 +6968,13 @@
         <v>323</v>
       </c>
       <c r="L101" s="22"/>
-      <c r="M101" s="22"/>
+      <c r="M101" s="22" t="s">
+        <v>358</v>
+      </c>
       <c r="N101" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O101" s="24" t="s">
-        <v>360</v>
-      </c>
+      <c r="O101" s="24"/>
     </row>
     <row r="102" spans="1:15" ht="160.5" customHeight="1" thickBot="1">
       <c r="A102" s="17">
@@ -6891,13 +7001,13 @@
         <v>323</v>
       </c>
       <c r="L102" s="22"/>
-      <c r="M102" s="22"/>
+      <c r="M102" s="22" t="s">
+        <v>359</v>
+      </c>
       <c r="N102" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O102" s="24" t="s">
-        <v>361</v>
-      </c>
+      <c r="O102" s="24"/>
     </row>
     <row r="103" spans="1:15" ht="160.5" customHeight="1" thickBot="1">
       <c r="A103" s="17">
@@ -6927,7 +7037,9 @@
       <c r="I103" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="J103" s="22"/>
+      <c r="J103" s="46" t="s">
+        <v>417</v>
+      </c>
       <c r="K103" s="22"/>
       <c r="L103" s="22"/>
       <c r="M103" s="22"/>
@@ -6961,13 +7073,13 @@
         <v>323</v>
       </c>
       <c r="L104" s="22"/>
-      <c r="M104" s="22"/>
+      <c r="M104" s="22" t="s">
+        <v>360</v>
+      </c>
       <c r="N104" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O104" s="24" t="s">
-        <v>362</v>
-      </c>
+      <c r="O104" s="24"/>
     </row>
     <row r="105" spans="1:15" ht="160.5" customHeight="1" thickBot="1">
       <c r="A105" s="17">
@@ -6997,7 +7109,9 @@
       <c r="I105" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="J105" s="22"/>
+      <c r="J105" s="46" t="s">
+        <v>418</v>
+      </c>
       <c r="K105" s="22"/>
       <c r="L105" s="22"/>
       <c r="M105" s="22"/>
@@ -7031,13 +7145,13 @@
         <v>323</v>
       </c>
       <c r="L106" s="22"/>
-      <c r="M106" s="22"/>
+      <c r="M106" s="22" t="s">
+        <v>361</v>
+      </c>
       <c r="N106" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O106" s="24" t="s">
-        <v>363</v>
-      </c>
+      <c r="O106" s="24"/>
     </row>
     <row r="107" spans="1:15" ht="160.5" customHeight="1" thickBot="1">
       <c r="A107" s="17">
@@ -7067,7 +7181,9 @@
       <c r="I107" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="J107" s="22"/>
+      <c r="J107" s="46" t="s">
+        <v>416</v>
+      </c>
       <c r="K107" s="22"/>
       <c r="L107" s="22"/>
       <c r="M107" s="22"/>
@@ -7101,13 +7217,13 @@
         <v>323</v>
       </c>
       <c r="L108" s="22"/>
-      <c r="M108" s="22"/>
+      <c r="M108" s="46" t="s">
+        <v>401</v>
+      </c>
       <c r="N108" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O108" s="24" t="s">
-        <v>358</v>
-      </c>
+      <c r="O108" s="24"/>
     </row>
     <row r="109" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
       <c r="A109" s="17">
@@ -7129,18 +7245,20 @@
         <v>44953</v>
       </c>
       <c r="G109" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="H109" s="56" t="s">
-        <v>400</v>
-      </c>
-      <c r="I109" s="57" t="s">
-        <v>401</v>
+        <v>374</v>
+      </c>
+      <c r="H109" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="I109" s="45" t="s">
+        <v>399</v>
       </c>
       <c r="J109" s="22"/>
       <c r="K109" s="22"/>
       <c r="L109" s="22"/>
-      <c r="M109" s="22"/>
+      <c r="M109" s="46" t="s">
+        <v>412</v>
+      </c>
       <c r="N109" s="23" t="s">
         <v>87</v>
       </c>
@@ -7166,18 +7284,20 @@
         <v>44956</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H110" s="21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I110" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J110" s="22"/>
       <c r="K110" s="22"/>
       <c r="L110" s="22"/>
-      <c r="M110" s="22"/>
+      <c r="M110" s="22" t="s">
+        <v>413</v>
+      </c>
       <c r="N110" s="23" t="s">
         <v>87</v>
       </c>
@@ -7202,13 +7322,18 @@
       <c r="F111" s="20">
         <v>44953</v>
       </c>
+      <c r="G111" s="61" t="s">
+        <v>411</v>
+      </c>
       <c r="H111" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I111" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="J111" s="22"/>
+        <v>381</v>
+      </c>
+      <c r="J111" s="46" t="s">
+        <v>414</v>
+      </c>
       <c r="K111" s="22"/>
       <c r="L111" s="22"/>
       <c r="M111" s="22"/>
@@ -7237,18 +7362,20 @@
         <v>44953</v>
       </c>
       <c r="G112" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H112" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I112" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J112" s="22"/>
       <c r="K112" s="22"/>
       <c r="L112" s="22"/>
-      <c r="M112" s="22"/>
+      <c r="M112" s="46" t="s">
+        <v>415</v>
+      </c>
       <c r="N112" s="23" t="s">
         <v>87</v>
       </c>
@@ -7279,13 +7406,13 @@
         <v>323</v>
       </c>
       <c r="L113" s="22"/>
-      <c r="M113" s="22"/>
+      <c r="M113" s="22" t="s">
+        <v>357</v>
+      </c>
       <c r="N113" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O113" s="24" t="s">
-        <v>359</v>
-      </c>
+      <c r="O113" s="24"/>
     </row>
     <row r="114" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
       <c r="A114" s="17">
@@ -7308,17 +7435,17 @@
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
       <c r="J114" s="22"/>
-      <c r="K114" s="58" t="s">
+      <c r="K114" s="46" t="s">
         <v>323</v>
       </c>
       <c r="L114" s="22"/>
-      <c r="M114" s="22"/>
+      <c r="M114" s="22" t="s">
+        <v>400</v>
+      </c>
       <c r="N114" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O114" s="24" t="s">
-        <v>402</v>
-      </c>
+      <c r="O114" s="24"/>
     </row>
     <row r="115" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
       <c r="A115" s="17">
@@ -7340,15 +7467,17 @@
         <v>44953</v>
       </c>
       <c r="G115" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H115" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I115" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="J115" s="22"/>
+        <v>393</v>
+      </c>
+      <c r="J115" s="46" t="s">
+        <v>419</v>
+      </c>
       <c r="K115" s="22"/>
       <c r="L115" s="22"/>
       <c r="M115" s="22"/>
@@ -7378,17 +7507,17 @@
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
       <c r="J116" s="22"/>
-      <c r="K116" s="58" t="s">
+      <c r="K116" s="46" t="s">
         <v>323</v>
       </c>
       <c r="L116" s="22"/>
-      <c r="M116" s="22"/>
+      <c r="M116" s="22" t="s">
+        <v>361</v>
+      </c>
       <c r="N116" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O116" s="24" t="s">
-        <v>363</v>
-      </c>
+      <c r="O116" s="24"/>
     </row>
     <row r="117" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
       <c r="A117" s="17">
@@ -7410,15 +7539,17 @@
         <v>44953</v>
       </c>
       <c r="G117" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H117" s="21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I117" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="J117" s="22"/>
+        <v>394</v>
+      </c>
+      <c r="J117" s="46" t="s">
+        <v>420</v>
+      </c>
       <c r="K117" s="22"/>
       <c r="L117" s="22"/>
       <c r="M117" s="22"/>
@@ -7448,17 +7579,17 @@
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="22"/>
-      <c r="K118" s="58" t="s">
+      <c r="K118" s="46" t="s">
         <v>323</v>
       </c>
       <c r="L118" s="22"/>
-      <c r="M118" s="22"/>
+      <c r="M118" s="22" t="s">
+        <v>360</v>
+      </c>
       <c r="N118" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O118" s="24" t="s">
-        <v>362</v>
-      </c>
+      <c r="O118" s="24"/>
     </row>
     <row r="119" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
       <c r="A119" s="17">
@@ -7480,15 +7611,17 @@
         <v>44953</v>
       </c>
       <c r="G119" s="21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H119" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I119" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="J119" s="22"/>
+        <v>395</v>
+      </c>
+      <c r="J119" s="46" t="s">
+        <v>421</v>
+      </c>
       <c r="K119" s="22"/>
       <c r="L119" s="22"/>
       <c r="M119" s="22"/>
@@ -7518,17 +7651,17 @@
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
       <c r="J120" s="22"/>
-      <c r="K120" s="58" t="s">
+      <c r="K120" s="46" t="s">
         <v>323</v>
       </c>
       <c r="L120" s="22"/>
-      <c r="M120" s="22"/>
+      <c r="M120" s="22" t="s">
+        <v>361</v>
+      </c>
       <c r="N120" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="O120" s="59" t="s">
-        <v>363</v>
-      </c>
+      <c r="O120" s="47"/>
     </row>
     <row r="121" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
       <c r="A121" s="17">
@@ -7550,18 +7683,20 @@
         <v>44953</v>
       </c>
       <c r="G121" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H121" s="21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I121" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J121" s="22"/>
       <c r="K121" s="22"/>
       <c r="L121" s="22"/>
-      <c r="M121" s="22"/>
+      <c r="M121" s="46" t="s">
+        <v>422</v>
+      </c>
       <c r="N121" s="23" t="s">
         <v>87</v>
       </c>
@@ -7587,15 +7722,17 @@
         <v>44953</v>
       </c>
       <c r="G122" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H122" s="21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I122" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="J122" s="22"/>
+        <v>397</v>
+      </c>
+      <c r="J122" s="46" t="s">
+        <v>421</v>
+      </c>
       <c r="K122" s="22"/>
       <c r="L122" s="22"/>
       <c r="M122" s="22"/>

--- a/GATEWAY/S1#111ONIT0000000/OnitGroup/OnVac/V.4.43.0.0/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/S1#111ONIT0000000/OnitGroup/OnVac/V.4.43.0.0/accreditamento-checklist_V4.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0A4743-E804-4A98-99CA-6F8D60CA49AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5E02F4-5CEE-4364-BF39-D8ECAF77DB7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="425">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -2049,6 +2049,9 @@
   </si>
   <si>
     <t>Non è possibile da applicativo inviare un messaggio senza almeno un identificativo del paziente</t>
+  </si>
+  <si>
+    <t>Viene restituito l'errore ad applicativo. Dopo che l'operatore ha sistemato il dato, effettua il reinvio.</t>
   </si>
 </sst>
 </file>
@@ -2613,6 +2616,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2634,10 +2641,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4009,10 +4012,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomRight" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -4043,12 +4046,12 @@
       <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="33" hidden="1" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="51"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="53"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -4061,14 +4064,14 @@
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" hidden="1" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="53"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4081,12 +4084,12 @@
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="59" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="2"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -4100,12 +4103,12 @@
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="53"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4118,8 +4121,8 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -5060,7 +5063,9 @@
       <c r="I38" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="J38" s="22"/>
+      <c r="J38" s="22" t="s">
+        <v>424</v>
+      </c>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
@@ -5097,7 +5102,9 @@
       <c r="I39" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="J39" s="22"/>
+      <c r="J39" s="22" t="s">
+        <v>424</v>
+      </c>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
@@ -5250,7 +5257,9 @@
       <c r="I44" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="J44" s="22"/>
+      <c r="J44" s="22" t="s">
+        <v>424</v>
+      </c>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
@@ -5287,7 +5296,9 @@
       <c r="I45" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="J45" s="22"/>
+      <c r="J45" s="22" t="s">
+        <v>424</v>
+      </c>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
@@ -6785,7 +6796,7 @@
       <c r="J96" s="22"/>
       <c r="K96" s="22"/>
       <c r="L96" s="22"/>
-      <c r="M96" s="60" t="s">
+      <c r="M96" s="48" t="s">
         <v>412</v>
       </c>
       <c r="N96" s="23" t="s">
@@ -7322,7 +7333,7 @@
       <c r="F111" s="20">
         <v>44953</v>
       </c>
-      <c r="G111" s="61" t="s">
+      <c r="G111" s="49" t="s">
         <v>411</v>
       </c>
       <c r="H111" s="21" t="s">

--- a/GATEWAY/S1#111ONIT0000000/OnitGroup/OnVac/V.4.43.0.0/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/S1#111ONIT0000000/OnitGroup/OnVac/V.4.43.0.0/accreditamento-checklist_V4.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5E02F4-5CEE-4364-BF39-D8ECAF77DB7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD05D137-6BCB-43CD-B013-0CBCC9A1DED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="435">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -2051,7 +2051,37 @@
     <t>Non è possibile da applicativo inviare un messaggio senza almeno un identificativo del paziente</t>
   </si>
   <si>
-    <t>Viene restituito l'errore ad applicativo. Dopo che l'operatore ha sistemato il dato, effettua il reinvio.</t>
+    <t>Viene restituito l'errore: "Campo token JWT non valido il campo subject_organization_id non è valorizzato". Dopo che l'operatore ammistritatore ha sistemato il dato, effettua il reinvio.</t>
+  </si>
+  <si>
+    <t>Viene restituito l'errore:"Campo token JWT non valido. I campi subject_organization_id e subject_organization non sono coerenti" ad applicativo. Dopo che l'operatore ammistritatore ha sistemato il dato, effettua il reinvio.</t>
+  </si>
+  <si>
+    <t>Viene restituito l'errore:"Campo token JWT non valido. I campi subject_organization_id e subject_organization non sono coerenti". Dopo che l'operatore amministratore ha sistemato il dato, effettua il reinvio.</t>
+  </si>
+  <si>
+    <t>Viene restituito l'errore:"Campo token JWT non valido. Il campo subject_organization_id non è valorizzato". Dopo che l'operatore amministratore ha sistemato il dato, effettua il reinvio.</t>
+  </si>
+  <si>
+    <t>Viene segnalato l'errore: Errore semantico. [ERRORE-31| Il codice fiscale 'gtwgwy82b42g920m' cittadino ed operatore deve essere costituito da 16 cifre [A-Z0-9]{16}]</t>
+  </si>
+  <si>
+    <t>Viene segnalato l'errore: Errore semantico., detail=[ERRORE-5| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25']</t>
+  </si>
+  <si>
+    <t>Viene segnalato l'errore: Errore semantico. [ERRORE-13| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']</t>
+  </si>
+  <si>
+    <t>Viene segnalato l'errore:Errore semantico. [ERRORE-33| Il codice fiscale 'gtWGWY82B42G920M' cittadino ed operatore deve essere costituito da 16 cifre [A-Z0-9]{16}]</t>
+  </si>
+  <si>
+    <t>Viene segnalato l'errore:"Errore semantico., detail=[ERRORE-6| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25']"</t>
+  </si>
+  <si>
+    <t>Errore semantico. [ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']</t>
+  </si>
+  <si>
+    <t>Viene segnalato l'errore: Errore semantico. [ERRORE-b38| L'elemento entry/substanceAdministration/entryRelationship[@typeCode='RSON'] DEVE avere l'elemento templateId valorizzato con l'attributo @root='2.16.840.1.113883.2.9.10.1.11.4.10'.],[ERRORE-b39| L'elemento entry/substanceAdministration/entryRelationship[@typeCode='RSON']  DEVE contenere l'elemento observation/code valorizzato con gli attributi @code='85714-4' e @codeSystem='2.16.840.1.113883.6.1'.],[ERRORE-b40| L'elemento entry/substanceAdministration/entryRelationship[@typeCode='RSON']  DEVE contenere l'elemento observation/statusCode valorizzato con l'attributo @code='completed'.],[ERRORE-b41| L'elemento entry/substanceAdministration/entryRelationship[@typeCode='RSON'] DEVE contenere l'elemento observation/effectiveTime/low.],[ERRORE-b42| L'elemento entry/substanceAdministration/entryRelationship[@typeCode='RSON'] DEVE contenere l'elemento observation/effectiveTime/high.]</t>
   </si>
 </sst>
 </file>
@@ -4012,10 +4042,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L38" sqref="L38"/>
+      <selection pane="bottomRight" activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -5103,7 +5133,7 @@
         <v>404</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
@@ -5258,7 +5288,7 @@
         <v>404</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
@@ -5297,7 +5327,7 @@
         <v>404</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
@@ -6793,7 +6823,9 @@
       <c r="I96" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="J96" s="22"/>
+      <c r="J96" s="22" t="s">
+        <v>428</v>
+      </c>
       <c r="K96" s="22"/>
       <c r="L96" s="22"/>
       <c r="M96" s="48" t="s">
@@ -6832,7 +6864,9 @@
       <c r="I97" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="J97" s="22"/>
+      <c r="J97" s="22" t="s">
+        <v>429</v>
+      </c>
       <c r="K97" s="22"/>
       <c r="L97" s="22"/>
       <c r="M97" s="46" t="s">
@@ -6910,7 +6944,9 @@
       <c r="I99" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="J99" s="22"/>
+      <c r="J99" s="22" t="s">
+        <v>430</v>
+      </c>
       <c r="K99" s="22"/>
       <c r="L99" s="22"/>
       <c r="M99" s="46" t="s">
@@ -7264,7 +7300,9 @@
       <c r="I109" s="45" t="s">
         <v>399</v>
       </c>
-      <c r="J109" s="22"/>
+      <c r="J109" s="22" t="s">
+        <v>431</v>
+      </c>
       <c r="K109" s="22"/>
       <c r="L109" s="22"/>
       <c r="M109" s="46" t="s">
@@ -7303,7 +7341,9 @@
       <c r="I110" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="J110" s="22"/>
+      <c r="J110" s="22" t="s">
+        <v>432</v>
+      </c>
       <c r="K110" s="22"/>
       <c r="L110" s="22"/>
       <c r="M110" s="22" t="s">
@@ -7381,7 +7421,9 @@
       <c r="I112" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="J112" s="22"/>
+      <c r="J112" s="22" t="s">
+        <v>433</v>
+      </c>
       <c r="K112" s="22"/>
       <c r="L112" s="22"/>
       <c r="M112" s="46" t="s">
@@ -7702,7 +7744,9 @@
       <c r="I121" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="J121" s="22"/>
+      <c r="J121" s="22" t="s">
+        <v>434</v>
+      </c>
       <c r="K121" s="22"/>
       <c r="L121" s="22"/>
       <c r="M121" s="46" t="s">

--- a/GATEWAY/S1#111ONIT0000000/OnitGroup/OnVac/V.4.43.0.0/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/S1#111ONIT0000000/OnitGroup/OnVac/V.4.43.0.0/accreditamento-checklist_V4.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD05D137-6BCB-43CD-B013-0CBCC9A1DED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EBC542-D167-4528-8578-D8BCBAC74885}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="408">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1787,24 +1787,6 @@
     <t>2.16.840.1.113883.2.9.2.207.4.4.4ad3d59abcd2784f36aaa205ef0b393d9eabf9276d1e06c3b56434e9e429d7b6.c2b21ab8ad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-01-25T12:25:31Z</t>
-  </si>
-  <si>
-    <t>e82f550ee261b397</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.6e79e990e20070818b3f0907ce83785ec6a4ae8f6d4d776ff4d80996167470a4.9b4d8312fa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-01-25T13:05:28Z</t>
-  </si>
-  <si>
-    <t>3d397d47b36c2813</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.b1ebd1115701cf7625c8d35d132e440f2932e9ae852f7326d97c158210ff22dd.bd0b9a9884^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-01-25T14:28:44Z</t>
   </si>
   <si>
@@ -1814,12 +1796,6 @@
     <t>2.16.840.1.113883.2.9.2.207.4.4.477219c0a760ac38e53d2638aab8fd0e53834c4233473d25af3acc6ffdcefcf2.15362d05f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>cb37e7082a657b85</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.ccddb2313cb794ad89eb1c9808ded5fdc8e2c5d8819d58a8aa108371ab6f61d2.22f89f4fa3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-01-25T16:39:32Z</t>
   </si>
   <si>
@@ -1901,33 +1877,12 @@
     <t>2.16.840.1.113883.2.9.2.207.4.4.f900a8ef8fcf2983f3fc5c4ff5bde6ab5e99372b4ffecaa55aabcb582d0972df.3b36457a2b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-01-27T12:10:27</t>
-  </si>
-  <si>
-    <t>2023-01-30T14:41:39Z</t>
-  </si>
-  <si>
-    <t>2023-01-27T14:41:26Z</t>
-  </si>
-  <si>
-    <t>29c21e22fd568b91</t>
-  </si>
-  <si>
     <t>3a9496fa2a7d87b0</t>
   </si>
   <si>
-    <t>a6c01d83b97ad32b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.f4b1e8000e305f4dc68609a0b2f11e417a0d7a42865336c8b994ac367cef6750.5b2c8761b6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.207.4.4.60270f379b2a141556415023cc24a97918c3da6520617234e788b5376d9021e6.8dfa1596d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.0b578d266a3d70277d8c3be79fe34249fbdcb19c63b82c8af2840a052977a3d8.835ad88b50^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-01-27T14:55:49Z</t>
   </si>
   <si>
@@ -1937,18 +1892,12 @@
     <t>2023-01-27T15:07:15Z</t>
   </si>
   <si>
-    <t>2023-01-27T15:58:16Z</t>
-  </si>
-  <si>
     <t>2023-01-27T16:03:50Z</t>
   </si>
   <si>
     <t>8c4fc66a632a288a</t>
   </si>
   <si>
-    <t>86fa8083eb56b3fa</t>
-  </si>
-  <si>
     <t>9737c8c4622ee024</t>
   </si>
   <si>
@@ -1967,18 +1916,9 @@
     <t>2.16.840.1.113883.2.9.2.207.4.4.ab3b0516fed454a566fda5f9d59ade9ae43b3631abb10b04c80464f0517aaa5f.72fd1ff7b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.5974a8311faefb4665a5acab5f9d7605b349f7ecceda9bf7726301e79c74056d.018e814e4c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.207.4.4.becdfdb5cea3ffd96faa1b951cc0b02abe568163c5cc455dbb61577b64fd0d6a.076dbb5b67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>4f63909443342e26</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.b2cf4a8eac5b217192df66093058f675247e30357b996bd3f546adc5d66c8d62.037ee72e40^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Applicativo non da la possibilità di omettere la pare narrativa</t>
   </si>
   <si>
@@ -2061,27 +2001,6 @@
   </si>
   <si>
     <t>Viene restituito l'errore:"Campo token JWT non valido. Il campo subject_organization_id non è valorizzato". Dopo che l'operatore amministratore ha sistemato il dato, effettua il reinvio.</t>
-  </si>
-  <si>
-    <t>Viene segnalato l'errore: Errore semantico. [ERRORE-31| Il codice fiscale 'gtwgwy82b42g920m' cittadino ed operatore deve essere costituito da 16 cifre [A-Z0-9]{16}]</t>
-  </si>
-  <si>
-    <t>Viene segnalato l'errore: Errore semantico., detail=[ERRORE-5| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25']</t>
-  </si>
-  <si>
-    <t>Viene segnalato l'errore: Errore semantico. [ERRORE-13| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']</t>
-  </si>
-  <si>
-    <t>Viene segnalato l'errore:Errore semantico. [ERRORE-33| Il codice fiscale 'gtWGWY82B42G920M' cittadino ed operatore deve essere costituito da 16 cifre [A-Z0-9]{16}]</t>
-  </si>
-  <si>
-    <t>Viene segnalato l'errore:"Errore semantico., detail=[ERRORE-6| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25']"</t>
-  </si>
-  <si>
-    <t>Errore semantico. [ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']</t>
-  </si>
-  <si>
-    <t>Viene segnalato l'errore: Errore semantico. [ERRORE-b38| L'elemento entry/substanceAdministration/entryRelationship[@typeCode='RSON'] DEVE avere l'elemento templateId valorizzato con l'attributo @root='2.16.840.1.113883.2.9.10.1.11.4.10'.],[ERRORE-b39| L'elemento entry/substanceAdministration/entryRelationship[@typeCode='RSON']  DEVE contenere l'elemento observation/code valorizzato con gli attributi @code='85714-4' e @codeSystem='2.16.840.1.113883.6.1'.],[ERRORE-b40| L'elemento entry/substanceAdministration/entryRelationship[@typeCode='RSON']  DEVE contenere l'elemento observation/statusCode valorizzato con l'attributo @code='completed'.],[ERRORE-b41| L'elemento entry/substanceAdministration/entryRelationship[@typeCode='RSON'] DEVE contenere l'elemento observation/effectiveTime/low.],[ERRORE-b42| L'elemento entry/substanceAdministration/entryRelationship[@typeCode='RSON'] DEVE contenere l'elemento observation/effectiveTime/high.]</t>
   </si>
 </sst>
 </file>
@@ -4042,10 +3961,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J121" sqref="J121"/>
+      <selection pane="bottomRight" activeCell="J122" sqref="J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -4619,7 +4538,9 @@
         <v>326</v>
       </c>
       <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
+      <c r="K23" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
       <c r="N23" s="23"/>
@@ -4654,7 +4575,9 @@
         <v>329</v>
       </c>
       <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
+      <c r="K24" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
       <c r="N24" s="23"/>
@@ -4689,7 +4612,9 @@
         <v>332</v>
       </c>
       <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
+      <c r="K25" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
       <c r="N25" s="23"/>
@@ -4724,7 +4649,9 @@
         <v>335</v>
       </c>
       <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="K26" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
       <c r="N26" s="23"/>
@@ -4750,16 +4677,18 @@
         <v>44953</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
+      <c r="K27" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="23"/>
@@ -4785,16 +4714,18 @@
         <v>44953</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
+      <c r="K28" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28" s="23"/>
@@ -4820,16 +4751,18 @@
         <v>44956</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
+      <c r="K29" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
       <c r="N29" s="23"/>
@@ -4855,16 +4788,18 @@
         <v>44953</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
+      <c r="K30" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
       <c r="N30" s="23"/>
@@ -5085,18 +5020,20 @@
         <v>44964</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="I38" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="J38" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="J38" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="K38" s="22"/>
+      <c r="K38" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="23" t="s">
@@ -5124,18 +5061,20 @@
         <v>44964</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="H39" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="J39" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="I39" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="J39" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="K39" s="22"/>
+      <c r="K39" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="23" t="s">
@@ -5279,18 +5218,20 @@
         <v>44964</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="H44" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="J44" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="I44" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="K44" s="22"/>
+      <c r="K44" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="23" t="s">
@@ -5318,18 +5259,20 @@
         <v>44964</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="K45" s="22"/>
+        <v>406</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="23" t="s">
@@ -5474,9 +5417,11 @@
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="K50" s="22"/>
+        <v>348</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="23" t="s">
@@ -5505,9 +5450,11 @@
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="K51" s="22"/>
+        <v>348</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="23" t="s">
@@ -6788,7 +6735,7 @@
       </c>
       <c r="L95" s="22"/>
       <c r="M95" s="46" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="N95" s="23" t="s">
         <v>87</v>
@@ -6811,25 +6758,17 @@
       <c r="E96" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="F96" s="20">
-        <v>44586</v>
-      </c>
-      <c r="G96" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="H96" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="I96" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="J96" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="K96" s="22"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22" t="s">
+        <v>323</v>
+      </c>
       <c r="L96" s="22"/>
       <c r="M96" s="48" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="N96" s="23" t="s">
         <v>87</v>
@@ -6852,25 +6791,17 @@
       <c r="E97" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="F97" s="20">
-        <v>44586</v>
-      </c>
-      <c r="G97" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="H97" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="I97" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="J97" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="K97" s="22"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22" t="s">
+        <v>323</v>
+      </c>
       <c r="L97" s="22"/>
       <c r="M97" s="46" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="N97" s="23" t="s">
         <v>87</v>
@@ -6897,18 +6828,20 @@
         <v>44586</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H98" s="21" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="I98" s="21" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J98" s="46" t="s">
-        <v>414</v>
-      </c>
-      <c r="K98" s="22"/>
+        <v>394</v>
+      </c>
+      <c r="K98" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L98" s="22"/>
       <c r="M98" s="22"/>
       <c r="N98" s="23" t="s">
@@ -6932,25 +6865,17 @@
       <c r="E99" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="F99" s="20">
-        <v>44586</v>
-      </c>
-      <c r="G99" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="H99" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="I99" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="J99" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="K99" s="22"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22" t="s">
+        <v>323</v>
+      </c>
       <c r="L99" s="22"/>
       <c r="M99" s="46" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="N99" s="23" t="s">
         <v>87</v>
@@ -6983,7 +6908,7 @@
       </c>
       <c r="L100" s="22"/>
       <c r="M100" s="22" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="N100" s="23" t="s">
         <v>87</v>
@@ -7016,7 +6941,7 @@
       </c>
       <c r="L101" s="22"/>
       <c r="M101" s="22" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="N101" s="23" t="s">
         <v>87</v>
@@ -7049,7 +6974,7 @@
       </c>
       <c r="L102" s="22"/>
       <c r="M102" s="22" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="N102" s="23" t="s">
         <v>87</v>
@@ -7076,18 +7001,20 @@
         <v>44586</v>
       </c>
       <c r="G103" s="21" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H103" s="21" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I103" s="21" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J103" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="K103" s="22"/>
+        <v>397</v>
+      </c>
+      <c r="K103" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L103" s="22"/>
       <c r="M103" s="22"/>
       <c r="N103" s="23" t="s">
@@ -7121,7 +7048,7 @@
       </c>
       <c r="L104" s="22"/>
       <c r="M104" s="22" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="N104" s="23" t="s">
         <v>87</v>
@@ -7148,18 +7075,20 @@
         <v>44586</v>
       </c>
       <c r="G105" s="21" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H105" s="21" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="I105" s="21" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J105" s="46" t="s">
-        <v>418</v>
-      </c>
-      <c r="K105" s="22"/>
+        <v>398</v>
+      </c>
+      <c r="K105" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L105" s="22"/>
       <c r="M105" s="22"/>
       <c r="N105" s="23" t="s">
@@ -7193,7 +7122,7 @@
       </c>
       <c r="L106" s="22"/>
       <c r="M106" s="22" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="N106" s="23" t="s">
         <v>87</v>
@@ -7220,18 +7149,20 @@
         <v>44951</v>
       </c>
       <c r="G107" s="21" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H107" s="21" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="I107" s="21" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="J107" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="K107" s="22"/>
+        <v>396</v>
+      </c>
+      <c r="K107" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L107" s="22"/>
       <c r="M107" s="22"/>
       <c r="N107" s="23" t="s">
@@ -7265,7 +7196,7 @@
       </c>
       <c r="L108" s="22"/>
       <c r="M108" s="46" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="N108" s="23" t="s">
         <v>87</v>
@@ -7288,25 +7219,17 @@
       <c r="E109" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="F109" s="20">
-        <v>44953</v>
-      </c>
-      <c r="G109" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="H109" s="44" t="s">
-        <v>398</v>
-      </c>
-      <c r="I109" s="45" t="s">
-        <v>399</v>
-      </c>
-      <c r="J109" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="K109" s="22"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="44"/>
+      <c r="I109" s="45"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="22" t="s">
+        <v>323</v>
+      </c>
       <c r="L109" s="22"/>
       <c r="M109" s="46" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="N109" s="23" t="s">
         <v>87</v>
@@ -7329,25 +7252,17 @@
       <c r="E110" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="F110" s="20">
-        <v>44956</v>
-      </c>
-      <c r="G110" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="H110" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="I110" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="J110" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="K110" s="22"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22" t="s">
+        <v>323</v>
+      </c>
       <c r="L110" s="22"/>
       <c r="M110" s="22" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="N110" s="23" t="s">
         <v>87</v>
@@ -7374,18 +7289,20 @@
         <v>44953</v>
       </c>
       <c r="G111" s="49" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="H111" s="21" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="I111" s="21" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="J111" s="46" t="s">
-        <v>414</v>
-      </c>
-      <c r="K111" s="22"/>
+        <v>394</v>
+      </c>
+      <c r="K111" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L111" s="22"/>
       <c r="M111" s="22"/>
       <c r="N111" s="23" t="s">
@@ -7409,25 +7326,17 @@
       <c r="E112" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="F112" s="20">
-        <v>44953</v>
-      </c>
-      <c r="G112" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="H112" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="I112" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="J112" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="K112" s="22"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22" t="s">
+        <v>323</v>
+      </c>
       <c r="L112" s="22"/>
       <c r="M112" s="46" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="N112" s="23" t="s">
         <v>87</v>
@@ -7460,7 +7369,7 @@
       </c>
       <c r="L113" s="22"/>
       <c r="M113" s="22" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="N113" s="23" t="s">
         <v>87</v>
@@ -7493,7 +7402,7 @@
       </c>
       <c r="L114" s="22"/>
       <c r="M114" s="22" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="N114" s="23" t="s">
         <v>87</v>
@@ -7520,18 +7429,20 @@
         <v>44953</v>
       </c>
       <c r="G115" s="21" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="H115" s="21" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="I115" s="21" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="J115" s="46" t="s">
-        <v>419</v>
-      </c>
-      <c r="K115" s="22"/>
+        <v>399</v>
+      </c>
+      <c r="K115" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L115" s="22"/>
       <c r="M115" s="22"/>
       <c r="N115" s="23" t="s">
@@ -7565,7 +7476,7 @@
       </c>
       <c r="L116" s="22"/>
       <c r="M116" s="22" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="N116" s="23" t="s">
         <v>87</v>
@@ -7592,18 +7503,20 @@
         <v>44953</v>
       </c>
       <c r="G117" s="21" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="H117" s="21" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="I117" s="21" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="J117" s="46" t="s">
-        <v>420</v>
-      </c>
-      <c r="K117" s="22"/>
+        <v>400</v>
+      </c>
+      <c r="K117" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L117" s="22"/>
       <c r="M117" s="22"/>
       <c r="N117" s="23" t="s">
@@ -7637,7 +7550,7 @@
       </c>
       <c r="L118" s="22"/>
       <c r="M118" s="22" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="N118" s="23" t="s">
         <v>87</v>
@@ -7664,18 +7577,20 @@
         <v>44953</v>
       </c>
       <c r="G119" s="21" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="H119" s="21" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="I119" s="21" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="J119" s="46" t="s">
-        <v>421</v>
-      </c>
-      <c r="K119" s="22"/>
+        <v>401</v>
+      </c>
+      <c r="K119" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L119" s="22"/>
       <c r="M119" s="22"/>
       <c r="N119" s="23" t="s">
@@ -7709,7 +7624,7 @@
       </c>
       <c r="L120" s="22"/>
       <c r="M120" s="22" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="N120" s="23" t="s">
         <v>87</v>
@@ -7732,25 +7647,17 @@
       <c r="E121" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="F121" s="20">
-        <v>44953</v>
-      </c>
-      <c r="G121" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="H121" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="I121" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="J121" s="22" t="s">
-        <v>434</v>
-      </c>
-      <c r="K121" s="22"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
+      <c r="J121" s="22"/>
+      <c r="K121" s="22" t="s">
+        <v>323</v>
+      </c>
       <c r="L121" s="22"/>
       <c r="M121" s="46" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="N121" s="23" t="s">
         <v>87</v>
@@ -7777,18 +7684,20 @@
         <v>44953</v>
       </c>
       <c r="G122" s="21" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="H122" s="21" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="I122" s="21" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="J122" s="46" t="s">
-        <v>421</v>
-      </c>
-      <c r="K122" s="22"/>
+        <v>401</v>
+      </c>
+      <c r="K122" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="L122" s="22"/>
       <c r="M122" s="22"/>
       <c r="N122" s="23" t="s">

--- a/GATEWAY/S1#111ONIT0000000/OnitGroup/OnVac/V.4.43.0.0/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/S1#111ONIT0000000/OnitGroup/OnVac/V.4.43.0.0/accreditamento-checklist_V4.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\OnVac\V.43\Certificato\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EBC542-D167-4528-8578-D8BCBAC74885}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11CFCC4-CAD9-46E4-9443-D760AF0F7150}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -1751,42 +1751,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>2023-01-25T10:58:00Z</t>
-  </si>
-  <si>
-    <t>ce7e8e84729666f6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.2742aaa8c6cb35b535d1c3f64f21fc9e5984d404a6abe45b86a65e04705a9237.4f4eee3804^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-01-25T10:54:12Z</t>
-  </si>
-  <si>
-    <t>805e630bb586479d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.cab1e42f225924639b930bc815c77548d0f011fc4d05e1ae619fd23eec0caeea.a53c084cd9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-01-25T11:33:07Z</t>
-  </si>
-  <si>
-    <t>f91336795ee803ca</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.b1ed80f6a258a4b095a052a652709b8b2ec4e70ea3d150addd8cac3474f39fcc.95c3740a91^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-01-25T11:58:16Z</t>
-  </si>
-  <si>
-    <t>8f447514777a49aa</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.4ad3d59abcd2784f36aaa205ef0b393d9eabf9276d1e06c3b56434e9e429d7b6.c2b21ab8ad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-01-25T14:28:44Z</t>
   </si>
   <si>
@@ -1841,42 +1805,6 @@
     <t>Non è possibile gestire il caso in quanto il dato risulta obbligatorio da applicativo</t>
   </si>
   <si>
-    <t>2023-01-27T10:03:50Z</t>
-  </si>
-  <si>
-    <t>64ea4e4c2d4b9240</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.6faedac0608ab52b6799b039c956e044f34f7f0c4c587bdc0acd66d40a3f71af.94bd254216^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-01-27T10:13:02Z</t>
-  </si>
-  <si>
-    <t>2023-01-30T14:29:28Z</t>
-  </si>
-  <si>
-    <t>2023-01-27T10:52:31Z</t>
-  </si>
-  <si>
-    <t>0b57911d827d279d</t>
-  </si>
-  <si>
-    <t>ccf9a9c969bcdf5a</t>
-  </si>
-  <si>
-    <t>017c2b250bf2284a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.83daa708695ecc05b195d06fc3c750b758e17ec49749ede1a4fd5e1768d3ba9a.c0905b9181^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.57a3fa8bd1656e845b66f7cf8e87eaf09888e46f06e30a1eead63cec516144b6.eba63c2913^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.f900a8ef8fcf2983f3fc5c4ff5bde6ab5e99372b4ffecaa55aabcb582d0972df.3b36457a2b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>3a9496fa2a7d87b0</t>
   </si>
   <si>
@@ -2001,6 +1929,78 @@
   </si>
   <si>
     <t>Viene restituito l'errore:"Campo token JWT non valido. Il campo subject_organization_id non è valorizzato". Dopo che l'operatore amministratore ha sistemato il dato, effettua il reinvio.</t>
+  </si>
+  <si>
+    <t>2023-03-08T17:27:56Z</t>
+  </si>
+  <si>
+    <t>ae871454a3660c32</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.207.4.4.b3d1f2abd8909fb8b16b7d5f308e5f438c5d3b689a48272677f5154cd17bf113.b3aff6e289^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>19a0c7bf9242aa53</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.207.4.4.2742aaa8c6cb35b535d1c3f64f21fc9e5984d404a6abe45b86a65e04705a9237.e6f3da8f37^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-08T17:03:26Z</t>
+  </si>
+  <si>
+    <t>2023-03-08T17:23;04Z</t>
+  </si>
+  <si>
+    <t>99704005bc17a9eb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.207.4.4.4ee9a24698a2fa84476ae3cfc75b17b23415f470c975508352471219f1e5ca06.6b2dce294d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>59f04183c6f94253</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.207.4.4.4ad3d59abcd2784f36aaa205ef0b393d9eabf9276d1e06c3b56434e9e429d7b6.572821a9df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-08T17:15:58Z</t>
+  </si>
+  <si>
+    <t>2023-03-08T16:45:31Z</t>
+  </si>
+  <si>
+    <t>fcd8ccd426dd973a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.207.4.4.6faedac0608ab52b6799b039c956e044f34f7f0c4c587bdc0acd66d40a3f71af.80bea6c37c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-08T16:43:10Z</t>
+  </si>
+  <si>
+    <t>0a1e12e7184e16f9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.207.4.4.83daa708695ecc05b195d06fc3c750b758e17ec49749ede1a4fd5e1768d3ba9a.0dfd256dfc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-08T16:54:52Z</t>
+  </si>
+  <si>
+    <t>1ab00c7f376040cd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.207.4.4.57a3fa8bd1656e845b66f7cf8e87eaf09888e46f06e30a1eead63cec516144b6.633ede9673^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-08T16:57:21Z</t>
+  </si>
+  <si>
+    <t>7b22d9dbdf871111</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.207.4.4.f900a8ef8fcf2983f3fc5c4ff5bde6ab5e99372b4ffecaa55aabcb582d0972df.37239a12ef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3961,10 +3961,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J122" sqref="J122"/>
+      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -4526,16 +4526,16 @@
         <v>60</v>
       </c>
       <c r="F23" s="20">
-        <v>44951</v>
+        <v>44993</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>324</v>
+        <v>384</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>325</v>
+        <v>385</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>326</v>
+        <v>386</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="22" t="s">
@@ -4563,16 +4563,16 @@
         <v>62</v>
       </c>
       <c r="F24" s="20">
-        <v>44951</v>
+        <v>44993</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>327</v>
+        <v>389</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>328</v>
+        <v>387</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>329</v>
+        <v>388</v>
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22" t="s">
@@ -4600,16 +4600,16 @@
         <v>64</v>
       </c>
       <c r="F25" s="20">
-        <v>44586</v>
+        <v>44993</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>331</v>
+        <v>391</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>332</v>
+        <v>392</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22" t="s">
@@ -4637,16 +4637,16 @@
         <v>66</v>
       </c>
       <c r="F26" s="20">
-        <v>44586</v>
+        <v>44993</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>333</v>
+        <v>395</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>334</v>
+        <v>393</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22" t="s">
@@ -4674,16 +4674,16 @@
         <v>69</v>
       </c>
       <c r="F27" s="20">
-        <v>44953</v>
+        <v>44993</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="J27" s="22"/>
       <c r="K27" s="22" t="s">
@@ -4711,16 +4711,16 @@
         <v>71</v>
       </c>
       <c r="F28" s="20">
-        <v>44953</v>
+        <v>44993</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="22" t="s">
@@ -4748,16 +4748,16 @@
         <v>73</v>
       </c>
       <c r="F29" s="20">
-        <v>44956</v>
+        <v>44993</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="J29" s="22"/>
       <c r="K29" s="22" t="s">
@@ -4785,16 +4785,16 @@
         <v>75</v>
       </c>
       <c r="F30" s="20">
-        <v>44953</v>
+        <v>44993</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="J30" s="22"/>
       <c r="K30" s="22" t="s">
@@ -5020,16 +5020,16 @@
         <v>44964</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="K38" s="22" t="s">
         <v>87</v>
@@ -5061,16 +5061,16 @@
         <v>44964</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="K39" s="22" t="s">
         <v>87</v>
@@ -5218,16 +5218,16 @@
         <v>44964</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="K44" s="22" t="s">
         <v>87</v>
@@ -5259,16 +5259,16 @@
         <v>44964</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="K45" s="22" t="s">
         <v>87</v>
@@ -5417,7 +5417,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="22" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="K50" s="22" t="s">
         <v>87</v>
@@ -5450,7 +5450,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="22" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="K51" s="22" t="s">
         <v>87</v>
@@ -6735,7 +6735,7 @@
       </c>
       <c r="L95" s="22"/>
       <c r="M95" s="46" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="N95" s="23" t="s">
         <v>87</v>
@@ -6768,7 +6768,7 @@
       </c>
       <c r="L96" s="22"/>
       <c r="M96" s="48" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="N96" s="23" t="s">
         <v>87</v>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="L97" s="22"/>
       <c r="M97" s="46" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="N97" s="23" t="s">
         <v>87</v>
@@ -6828,16 +6828,16 @@
         <v>44586</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H98" s="21" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="I98" s="21" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="J98" s="46" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="K98" s="22" t="s">
         <v>87</v>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="L99" s="22"/>
       <c r="M99" s="46" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="N99" s="23" t="s">
         <v>87</v>
@@ -6908,7 +6908,7 @@
       </c>
       <c r="L100" s="22"/>
       <c r="M100" s="22" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="N100" s="23" t="s">
         <v>87</v>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="L101" s="22"/>
       <c r="M101" s="22" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="N101" s="23" t="s">
         <v>87</v>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="L102" s="22"/>
       <c r="M102" s="22" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="N102" s="23" t="s">
         <v>87</v>
@@ -7001,16 +7001,16 @@
         <v>44586</v>
       </c>
       <c r="G103" s="21" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="H103" s="21" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="I103" s="21" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="J103" s="46" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="K103" s="22" t="s">
         <v>87</v>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="L104" s="22"/>
       <c r="M104" s="22" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="N104" s="23" t="s">
         <v>87</v>
@@ -7075,16 +7075,16 @@
         <v>44586</v>
       </c>
       <c r="G105" s="21" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H105" s="21" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I105" s="21" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="J105" s="46" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="K105" s="22" t="s">
         <v>87</v>
@@ -7122,7 +7122,7 @@
       </c>
       <c r="L106" s="22"/>
       <c r="M106" s="22" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="N106" s="23" t="s">
         <v>87</v>
@@ -7149,16 +7149,16 @@
         <v>44951</v>
       </c>
       <c r="G107" s="21" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="H107" s="21" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="I107" s="21" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="J107" s="46" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="K107" s="22" t="s">
         <v>87</v>
@@ -7196,7 +7196,7 @@
       </c>
       <c r="L108" s="22"/>
       <c r="M108" s="46" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="N108" s="23" t="s">
         <v>87</v>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="L109" s="22"/>
       <c r="M109" s="46" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="N109" s="23" t="s">
         <v>87</v>
@@ -7262,7 +7262,7 @@
       </c>
       <c r="L110" s="22"/>
       <c r="M110" s="22" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="N110" s="23" t="s">
         <v>87</v>
@@ -7289,16 +7289,16 @@
         <v>44953</v>
       </c>
       <c r="G111" s="49" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="H111" s="21" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="I111" s="21" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="J111" s="46" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="K111" s="22" t="s">
         <v>87</v>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="L112" s="22"/>
       <c r="M112" s="46" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="N112" s="23" t="s">
         <v>87</v>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="L113" s="22"/>
       <c r="M113" s="22" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="N113" s="23" t="s">
         <v>87</v>
@@ -7402,7 +7402,7 @@
       </c>
       <c r="L114" s="22"/>
       <c r="M114" s="22" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="N114" s="23" t="s">
         <v>87</v>
@@ -7429,16 +7429,16 @@
         <v>44953</v>
       </c>
       <c r="G115" s="21" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="H115" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="I115" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="J115" s="46" t="s">
         <v>375</v>
-      </c>
-      <c r="I115" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="J115" s="46" t="s">
-        <v>399</v>
       </c>
       <c r="K115" s="22" t="s">
         <v>87</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="L116" s="22"/>
       <c r="M116" s="22" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="N116" s="23" t="s">
         <v>87</v>
@@ -7503,16 +7503,16 @@
         <v>44953</v>
       </c>
       <c r="G117" s="21" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="H117" s="21" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="I117" s="21" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="J117" s="46" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="K117" s="22" t="s">
         <v>87</v>
@@ -7550,7 +7550,7 @@
       </c>
       <c r="L118" s="22"/>
       <c r="M118" s="22" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="N118" s="23" t="s">
         <v>87</v>
@@ -7577,16 +7577,16 @@
         <v>44953</v>
       </c>
       <c r="G119" s="21" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H119" s="21" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="I119" s="21" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="J119" s="46" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="K119" s="22" t="s">
         <v>87</v>
@@ -7624,7 +7624,7 @@
       </c>
       <c r="L120" s="22"/>
       <c r="M120" s="22" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="N120" s="23" t="s">
         <v>87</v>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="L121" s="22"/>
       <c r="M121" s="46" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="N121" s="23" t="s">
         <v>87</v>
@@ -7684,16 +7684,16 @@
         <v>44953</v>
       </c>
       <c r="G122" s="21" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H122" s="21" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="I122" s="21" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="J122" s="46" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="K122" s="22" t="s">
         <v>87</v>

--- a/GATEWAY/S1#111ONIT0000000/OnitGroup/OnVac/V.4.43.0.0/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/S1#111ONIT0000000/OnitGroup/OnVac/V.4.43.0.0/accreditamento-checklist_V4.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\OnVac\V.43\Certificato\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\OnVac\V.43\Certificato\test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11CFCC4-CAD9-46E4-9443-D760AF0F7150}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4328549E-D436-45EA-8535-8BC433168469}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -1931,76 +1931,76 @@
     <t>Viene restituito l'errore:"Campo token JWT non valido. Il campo subject_organization_id non è valorizzato". Dopo che l'operatore amministratore ha sistemato il dato, effettua il reinvio.</t>
   </si>
   <si>
-    <t>2023-03-08T17:27:56Z</t>
-  </si>
-  <si>
-    <t>ae871454a3660c32</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.b3d1f2abd8909fb8b16b7d5f308e5f438c5d3b689a48272677f5154cd17bf113.b3aff6e289^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>19a0c7bf9242aa53</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.2742aaa8c6cb35b535d1c3f64f21fc9e5984d404a6abe45b86a65e04705a9237.e6f3da8f37^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-08T17:03:26Z</t>
-  </si>
-  <si>
-    <t>2023-03-08T17:23;04Z</t>
-  </si>
-  <si>
-    <t>99704005bc17a9eb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.4ee9a24698a2fa84476ae3cfc75b17b23415f470c975508352471219f1e5ca06.6b2dce294d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>59f04183c6f94253</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.4ad3d59abcd2784f36aaa205ef0b393d9eabf9276d1e06c3b56434e9e429d7b6.572821a9df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-08T17:15:58Z</t>
-  </si>
-  <si>
-    <t>2023-03-08T16:45:31Z</t>
-  </si>
-  <si>
-    <t>fcd8ccd426dd973a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.6faedac0608ab52b6799b039c956e044f34f7f0c4c587bdc0acd66d40a3f71af.80bea6c37c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-08T16:43:10Z</t>
-  </si>
-  <si>
-    <t>0a1e12e7184e16f9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.83daa708695ecc05b195d06fc3c750b758e17ec49749ede1a4fd5e1768d3ba9a.0dfd256dfc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-08T16:54:52Z</t>
-  </si>
-  <si>
-    <t>1ab00c7f376040cd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.57a3fa8bd1656e845b66f7cf8e87eaf09888e46f06e30a1eead63cec516144b6.633ede9673^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-08T16:57:21Z</t>
-  </si>
-  <si>
-    <t>7b22d9dbdf871111</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.f900a8ef8fcf2983f3fc5c4ff5bde6ab5e99372b4ffecaa55aabcb582d0972df.37239a12ef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>f63c689392de4cc8</t>
+  </si>
+  <si>
+    <t>2023-03-16T11:55:19Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.207.4.4.8cc8695e6a80f94bf5a084afff41c97a8f2a0584ce4f4a799b55bc9d5b2c1eeb.fe5f3b3bd5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>9525f757d749bd63</t>
+  </si>
+  <si>
+    <t>2023-03-16T11:58:59Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.207.4.4.b3d1f2abd8909fb8b16b7d5f308e5f438c5d3b689a48272677f5154cd17bf113.4325a18a2b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d1f21a4c8db4f300</t>
+  </si>
+  <si>
+    <t>2023-03-16T12:03:07Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.207.4.4.ad976a2c16825bf9674af0847fd5299580f6459da45d9cc3173a9b2983acf236.81786c9508^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>828c2799cb9039b0</t>
+  </si>
+  <si>
+    <t>2023-03-16T12:06:17Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.207.4.4.b3d1f2abd8909fb8b16b7d5f308e5f438c5d3b689a48272677f5154cd17bf113.de8fb4d016^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>aef196e114ef7141</t>
+  </si>
+  <si>
+    <t>2023-03-16T11:22:53Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.207.4.4.b3d1f2abd8909fb8b16b7d5f308e5f438c5d3b689a48272677f5154cd17bf113.fefd2e4f6f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e647ac2c1424b8f6</t>
+  </si>
+  <si>
+    <t>2023-03-16T11:38:41Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.207.4.4.b3d1f2abd8909fb8b16b7d5f308e5f438c5d3b689a48272677f5154cd17bf113.5adf98d776^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>aaac7c5bb8fe2f9d</t>
+  </si>
+  <si>
+    <t>2023-03-16T11:41:01Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.207.4.4.b3d1f2abd8909fb8b16b7d5f308e5f438c5d3b689a48272677f5154cd17bf113.943101f66c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c6566cd16a413792</t>
+  </si>
+  <si>
+    <t>2023-03-16T11:44:53Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.207.4.4.b3d1f2abd8909fb8b16b7d5f308e5f438c5d3b689a48272677f5154cd17bf113.799d152aeb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3961,10 +3961,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -4526,13 +4526,13 @@
         <v>60</v>
       </c>
       <c r="F23" s="20">
-        <v>44993</v>
+        <v>45001</v>
       </c>
       <c r="G23" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="H23" s="21" t="s">
         <v>384</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>385</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>386</v>
@@ -4563,16 +4563,16 @@
         <v>62</v>
       </c>
       <c r="F24" s="20">
-        <v>44993</v>
+        <v>45001</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H24" s="43" t="s">
         <v>387</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22" t="s">
@@ -4600,13 +4600,13 @@
         <v>64</v>
       </c>
       <c r="F25" s="20">
-        <v>44993</v>
+        <v>45001</v>
       </c>
       <c r="G25" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="H25" s="21" t="s">
         <v>390</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>391</v>
       </c>
       <c r="I25" s="21" t="s">
         <v>392</v>
@@ -4637,16 +4637,16 @@
         <v>66</v>
       </c>
       <c r="F26" s="20">
-        <v>44993</v>
+        <v>45001</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>393</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22" t="s">
@@ -4674,13 +4674,13 @@
         <v>69</v>
       </c>
       <c r="F27" s="20">
-        <v>44993</v>
+        <v>45001</v>
       </c>
       <c r="G27" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="H27" s="21" t="s">
         <v>396</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>397</v>
       </c>
       <c r="I27" s="21" t="s">
         <v>398</v>
@@ -4711,13 +4711,13 @@
         <v>71</v>
       </c>
       <c r="F28" s="20">
-        <v>44993</v>
+        <v>45001</v>
       </c>
       <c r="G28" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>399</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>400</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>401</v>
@@ -4748,13 +4748,13 @@
         <v>73</v>
       </c>
       <c r="F29" s="20">
-        <v>44993</v>
+        <v>45001</v>
       </c>
       <c r="G29" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="H29" s="21" t="s">
         <v>402</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>403</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>404</v>
@@ -4785,13 +4785,13 @@
         <v>75</v>
       </c>
       <c r="F30" s="20">
-        <v>44993</v>
+        <v>45001</v>
       </c>
       <c r="G30" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="H30" s="21" t="s">
         <v>405</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>406</v>
       </c>
       <c r="I30" s="21" t="s">
         <v>407</v>

--- a/GATEWAY/S1#111ONIT0000000/OnitGroup/OnVac/V.4.43.0.0/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/S1#111ONIT0000000/OnitGroup/OnVac/V.4.43.0.0/accreditamento-checklist_V4.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\OnVac\V.43\Certificato\test2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\OnVac\V.43\singolo\test3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4328549E-D436-45EA-8535-8BC433168469}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAEE990-16D5-4EDD-B8B5-7BC3E4F291EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -1985,15 +1985,6 @@
     <t>2.16.840.1.113883.2.9.2.207.4.4.b3d1f2abd8909fb8b16b7d5f308e5f438c5d3b689a48272677f5154cd17bf113.5adf98d776^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>aaac7c5bb8fe2f9d</t>
-  </si>
-  <si>
-    <t>2023-03-16T11:41:01Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.207.4.4.b3d1f2abd8909fb8b16b7d5f308e5f438c5d3b689a48272677f5154cd17bf113.943101f66c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>c6566cd16a413792</t>
   </si>
   <si>
@@ -2001,6 +1992,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.207.4.4.b3d1f2abd8909fb8b16b7d5f308e5f438c5d3b689a48272677f5154cd17bf113.799d152aeb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-23T08:37:19Z</t>
+  </si>
+  <si>
+    <t>5ae098b6db385622</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.207.4.4.b3d1f2abd8909fb8b16b7d5f308e5f438c5d3b689a48272677f5154cd17bf113.64c1408a82^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3961,10 +3961,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -4748,16 +4748,16 @@
         <v>73</v>
       </c>
       <c r="F29" s="20">
-        <v>45001</v>
+        <v>45008</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J29" s="22"/>
       <c r="K29" s="22" t="s">
@@ -4788,13 +4788,13 @@
         <v>45001</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="J30" s="22"/>
       <c r="K30" s="22" t="s">

--- a/GATEWAY/S1#111ONIT0000000/OnitGroup/OnVac/V.4.43.0.0/accreditamento-checklist_V4.1.xlsx
+++ b/GATEWAY/S1#111ONIT0000000/OnitGroup/OnVac/V.4.43.0.0/accreditamento-checklist_V4.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\OnVac\V.43\singolo\test3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAEE990-16D5-4EDD-B8B5-7BC3E4F291EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E0EDB6-FE8B-4166-B294-86E391E32955}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1904,9 +1904,6 @@
     <t>Nel messaggio d'errore viene indicata la valorizzazione errata. Dopo che l'operatore ha sistemato il dato, effettua il reinvio.</t>
   </si>
   <si>
-    <t>Viene segnalato l'errore</t>
-  </si>
-  <si>
     <t>Viene segnalato l'errore del mancato valore. Dopo che l'operatore ha sistemato il dato, effettua il reinvio.</t>
   </si>
   <si>
@@ -2001,6 +1998,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.207.4.4.b3d1f2abd8909fb8b16b7d5f308e5f438c5d3b689a48272677f5154cd17bf113.64c1408a82^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene segnalato l'errore del contenuto del messaggio. Dopo la modifica dei dati viene effettuato il reinvio</t>
   </si>
 </sst>
 </file>
@@ -3961,10 +3961,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -4529,13 +4529,13 @@
         <v>45001</v>
       </c>
       <c r="G23" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="I23" s="21" t="s">
         <v>385</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>386</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="22" t="s">
@@ -4566,13 +4566,13 @@
         <v>45001</v>
       </c>
       <c r="G24" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="I24" s="21" t="s">
         <v>388</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>389</v>
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22" t="s">
@@ -4603,13 +4603,13 @@
         <v>45001</v>
       </c>
       <c r="G25" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="I25" s="21" t="s">
         <v>391</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>392</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22" t="s">
@@ -4640,13 +4640,13 @@
         <v>45001</v>
       </c>
       <c r="G26" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="I26" s="21" t="s">
         <v>394</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>395</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22" t="s">
@@ -4677,13 +4677,13 @@
         <v>45001</v>
       </c>
       <c r="G27" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="I27" s="21" t="s">
         <v>397</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>398</v>
       </c>
       <c r="J27" s="22"/>
       <c r="K27" s="22" t="s">
@@ -4714,13 +4714,13 @@
         <v>45001</v>
       </c>
       <c r="G28" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="I28" s="21" t="s">
         <v>400</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>401</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="22" t="s">
@@ -4751,13 +4751,13 @@
         <v>45008</v>
       </c>
       <c r="G29" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="H29" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="I29" s="21" t="s">
         <v>406</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>407</v>
       </c>
       <c r="J29" s="22"/>
       <c r="K29" s="22" t="s">
@@ -4788,13 +4788,13 @@
         <v>45001</v>
       </c>
       <c r="G30" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="I30" s="21" t="s">
         <v>403</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>404</v>
       </c>
       <c r="J30" s="22"/>
       <c r="K30" s="22" t="s">
@@ -5029,7 +5029,7 @@
         <v>360</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K38" s="22" t="s">
         <v>87</v>
@@ -5070,7 +5070,7 @@
         <v>360</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K39" s="22" t="s">
         <v>87</v>
@@ -5227,7 +5227,7 @@
         <v>360</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K44" s="22" t="s">
         <v>87</v>
@@ -5268,7 +5268,7 @@
         <v>360</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K45" s="22" t="s">
         <v>87</v>
@@ -6735,7 +6735,7 @@
       </c>
       <c r="L95" s="22"/>
       <c r="M95" s="46" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N95" s="23" t="s">
         <v>87</v>
@@ -7438,7 +7438,7 @@
         <v>352</v>
       </c>
       <c r="J115" s="46" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="K115" s="22" t="s">
         <v>87</v>
@@ -7512,7 +7512,7 @@
         <v>353</v>
       </c>
       <c r="J117" s="46" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K117" s="22" t="s">
         <v>87</v>
@@ -7586,7 +7586,7 @@
         <v>354</v>
       </c>
       <c r="J119" s="46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K119" s="22" t="s">
         <v>87</v>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="L121" s="22"/>
       <c r="M121" s="46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N121" s="23" t="s">
         <v>87</v>
@@ -7693,7 +7693,7 @@
         <v>355</v>
       </c>
       <c r="J122" s="46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K122" s="22" t="s">
         <v>87</v>
